--- a/Unemployment_France_ECB.xlsx
+++ b/Unemployment_France_ECB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yesminehachana/Desktop/Classes/Dauphine/2nd Semester/Macroeconomics MATLAB Project/Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72771850-6B9B-0C4C-9C47-D979C903BC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696733A4-A5AA-C84B-BF07-08A139AF4868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="DATA(LFSI)" sheetId="2" r:id="rId1"/>
     <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ECB Data Portal</t>
   </si>
@@ -89,521 +102,17 @@
     <t>2025-04-01 11:00:00</t>
   </si>
   <si>
-    <t>TIME PERIOD</t>
-  </si>
-  <si>
-    <t>OBS.VALUE</t>
-  </si>
-  <si>
-    <t>Q1 1983</t>
-  </si>
-  <si>
-    <t>Q2 1983</t>
-  </si>
-  <si>
-    <t>Q3 1983</t>
-  </si>
-  <si>
-    <t>Q4 1983</t>
-  </si>
-  <si>
-    <t>Q1 1984</t>
-  </si>
-  <si>
-    <t>Q2 1984</t>
-  </si>
-  <si>
-    <t>Q3 1984</t>
-  </si>
-  <si>
-    <t>Q4 1984</t>
-  </si>
-  <si>
-    <t>Q1 1985</t>
-  </si>
-  <si>
-    <t>Q2 1985</t>
-  </si>
-  <si>
-    <t>Q3 1985</t>
-  </si>
-  <si>
-    <t>Q4 1985</t>
-  </si>
-  <si>
-    <t>Q1 1986</t>
-  </si>
-  <si>
-    <t>Q2 1986</t>
-  </si>
-  <si>
-    <t>Q3 1986</t>
-  </si>
-  <si>
-    <t>Q4 1986</t>
-  </si>
-  <si>
-    <t>Q1 1987</t>
-  </si>
-  <si>
-    <t>Q2 1987</t>
-  </si>
-  <si>
-    <t>Q3 1987</t>
-  </si>
-  <si>
-    <t>Q4 1987</t>
-  </si>
-  <si>
-    <t>Q1 1988</t>
-  </si>
-  <si>
-    <t>Q2 1988</t>
-  </si>
-  <si>
-    <t>Q3 1988</t>
-  </si>
-  <si>
-    <t>Q4 1988</t>
-  </si>
-  <si>
-    <t>Q1 1989</t>
-  </si>
-  <si>
-    <t>Q2 1989</t>
-  </si>
-  <si>
-    <t>Q3 1989</t>
-  </si>
-  <si>
-    <t>Q4 1989</t>
-  </si>
-  <si>
-    <t>Q1 1990</t>
-  </si>
-  <si>
-    <t>Q2 1990</t>
-  </si>
-  <si>
-    <t>Q3 1990</t>
-  </si>
-  <si>
-    <t>Q4 1990</t>
-  </si>
-  <si>
-    <t>Q1 1991</t>
-  </si>
-  <si>
-    <t>Q2 1991</t>
-  </si>
-  <si>
-    <t>Q3 1991</t>
-  </si>
-  <si>
-    <t>Q4 1991</t>
-  </si>
-  <si>
-    <t>Q1 1992</t>
-  </si>
-  <si>
-    <t>Q2 1992</t>
-  </si>
-  <si>
-    <t>Q3 1992</t>
-  </si>
-  <si>
-    <t>Q4 1992</t>
-  </si>
-  <si>
-    <t>Q1 1993</t>
-  </si>
-  <si>
-    <t>Q2 1993</t>
-  </si>
-  <si>
-    <t>Q3 1993</t>
-  </si>
-  <si>
-    <t>Q4 1993</t>
-  </si>
-  <si>
-    <t>Q1 1994</t>
-  </si>
-  <si>
-    <t>Q2 1994</t>
-  </si>
-  <si>
-    <t>Q3 1994</t>
-  </si>
-  <si>
-    <t>Q4 1994</t>
-  </si>
-  <si>
-    <t>Q1 1995</t>
-  </si>
-  <si>
-    <t>Q2 1995</t>
-  </si>
-  <si>
-    <t>Q3 1995</t>
-  </si>
-  <si>
-    <t>Q4 1995</t>
-  </si>
-  <si>
-    <t>Q1 1996</t>
-  </si>
-  <si>
-    <t>Q2 1996</t>
-  </si>
-  <si>
-    <t>Q3 1996</t>
-  </si>
-  <si>
-    <t>Q4 1996</t>
-  </si>
-  <si>
-    <t>Q1 1997</t>
-  </si>
-  <si>
-    <t>Q2 1997</t>
-  </si>
-  <si>
-    <t>Q3 1997</t>
-  </si>
-  <si>
-    <t>Q4 1997</t>
-  </si>
-  <si>
-    <t>Q1 1998</t>
-  </si>
-  <si>
-    <t>Q2 1998</t>
-  </si>
-  <si>
-    <t>Q3 1998</t>
-  </si>
-  <si>
-    <t>Q4 1998</t>
-  </si>
-  <si>
-    <t>Q1 1999</t>
-  </si>
-  <si>
-    <t>Q2 1999</t>
-  </si>
-  <si>
-    <t>Q3 1999</t>
-  </si>
-  <si>
-    <t>Q4 1999</t>
-  </si>
-  <si>
-    <t>Q1 2000</t>
-  </si>
-  <si>
-    <t>Q2 2000</t>
-  </si>
-  <si>
-    <t>Q3 2000</t>
-  </si>
-  <si>
-    <t>Q4 2000</t>
-  </si>
-  <si>
-    <t>Q1 2001</t>
-  </si>
-  <si>
-    <t>Q2 2001</t>
-  </si>
-  <si>
-    <t>Q3 2001</t>
-  </si>
-  <si>
-    <t>Q4 2001</t>
-  </si>
-  <si>
-    <t>Q1 2002</t>
-  </si>
-  <si>
-    <t>Q2 2002</t>
-  </si>
-  <si>
-    <t>Q3 2002</t>
-  </si>
-  <si>
-    <t>Q4 2002</t>
-  </si>
-  <si>
-    <t>Q1 2003</t>
-  </si>
-  <si>
-    <t>Q2 2003</t>
-  </si>
-  <si>
-    <t>Q3 2003</t>
-  </si>
-  <si>
-    <t>Q4 2003</t>
-  </si>
-  <si>
-    <t>Q1 2004</t>
-  </si>
-  <si>
-    <t>Q2 2004</t>
-  </si>
-  <si>
-    <t>Q3 2004</t>
-  </si>
-  <si>
-    <t>Q4 2004</t>
-  </si>
-  <si>
-    <t>Q1 2005</t>
-  </si>
-  <si>
-    <t>Q2 2005</t>
-  </si>
-  <si>
-    <t>Q3 2005</t>
-  </si>
-  <si>
-    <t>Q4 2005</t>
-  </si>
-  <si>
-    <t>Q1 2006</t>
-  </si>
-  <si>
-    <t>Q2 2006</t>
-  </si>
-  <si>
-    <t>Q3 2006</t>
-  </si>
-  <si>
-    <t>Q4 2006</t>
-  </si>
-  <si>
-    <t>Q1 2007</t>
-  </si>
-  <si>
-    <t>Q2 2007</t>
-  </si>
-  <si>
-    <t>Q3 2007</t>
-  </si>
-  <si>
-    <t>Q4 2007</t>
-  </si>
-  <si>
-    <t>Q1 2008</t>
-  </si>
-  <si>
-    <t>Q2 2008</t>
-  </si>
-  <si>
-    <t>Q3 2008</t>
-  </si>
-  <si>
-    <t>Q4 2008</t>
-  </si>
-  <si>
-    <t>Q1 2009</t>
-  </si>
-  <si>
-    <t>Q2 2009</t>
-  </si>
-  <si>
-    <t>Q3 2009</t>
-  </si>
-  <si>
-    <t>Q4 2009</t>
-  </si>
-  <si>
-    <t>Q1 2010</t>
-  </si>
-  <si>
-    <t>Q2 2010</t>
-  </si>
-  <si>
-    <t>Q3 2010</t>
-  </si>
-  <si>
-    <t>Q4 2010</t>
-  </si>
-  <si>
-    <t>Q1 2011</t>
-  </si>
-  <si>
-    <t>Q2 2011</t>
-  </si>
-  <si>
-    <t>Q3 2011</t>
-  </si>
-  <si>
-    <t>Q4 2011</t>
-  </si>
-  <si>
-    <t>Q1 2012</t>
-  </si>
-  <si>
-    <t>Q2 2012</t>
-  </si>
-  <si>
-    <t>Q3 2012</t>
-  </si>
-  <si>
-    <t>Q4 2012</t>
-  </si>
-  <si>
-    <t>Q1 2013</t>
-  </si>
-  <si>
-    <t>Q2 2013</t>
-  </si>
-  <si>
-    <t>Q3 2013</t>
-  </si>
-  <si>
-    <t>Q4 2013</t>
-  </si>
-  <si>
-    <t>Q1 2014</t>
-  </si>
-  <si>
-    <t>Q2 2014</t>
-  </si>
-  <si>
-    <t>Q3 2014</t>
-  </si>
-  <si>
-    <t>Q4 2014</t>
-  </si>
-  <si>
-    <t>Q1 2015</t>
-  </si>
-  <si>
-    <t>Q2 2015</t>
-  </si>
-  <si>
-    <t>Q3 2015</t>
-  </si>
-  <si>
-    <t>Q4 2015</t>
-  </si>
-  <si>
-    <t>Q1 2016</t>
-  </si>
-  <si>
-    <t>Q2 2016</t>
-  </si>
-  <si>
-    <t>Q3 2016</t>
-  </si>
-  <si>
-    <t>Q4 2016</t>
-  </si>
-  <si>
-    <t>Q1 2017</t>
-  </si>
-  <si>
-    <t>Q2 2017</t>
-  </si>
-  <si>
-    <t>Q3 2017</t>
-  </si>
-  <si>
-    <t>Q4 2017</t>
-  </si>
-  <si>
-    <t>Q1 2018</t>
-  </si>
-  <si>
-    <t>Q2 2018</t>
-  </si>
-  <si>
-    <t>Q3 2018</t>
-  </si>
-  <si>
-    <t>Q4 2018</t>
-  </si>
-  <si>
-    <t>Q1 2019</t>
-  </si>
-  <si>
-    <t>Q2 2019</t>
-  </si>
-  <si>
-    <t>Q3 2019</t>
-  </si>
-  <si>
-    <t>Q4 2019</t>
-  </si>
-  <si>
-    <t>Q1 2020</t>
-  </si>
-  <si>
-    <t>Q2 2020</t>
-  </si>
-  <si>
-    <t>Q3 2020</t>
-  </si>
-  <si>
-    <t>Q4 2020</t>
-  </si>
-  <si>
-    <t>Q1 2021</t>
-  </si>
-  <si>
-    <t>Q2 2021</t>
-  </si>
-  <si>
-    <t>Q3 2021</t>
-  </si>
-  <si>
-    <t>Q4 2021</t>
-  </si>
-  <si>
-    <t>Q1 2022</t>
-  </si>
-  <si>
-    <t>Q2 2022</t>
-  </si>
-  <si>
-    <t>Q3 2022</t>
-  </si>
-  <si>
-    <t>Q4 2022</t>
-  </si>
-  <si>
-    <t>Q1 2023</t>
-  </si>
-  <si>
-    <t>Q2 2023</t>
-  </si>
-  <si>
-    <t>Q3 2023</t>
-  </si>
-  <si>
-    <t>Q4 2023</t>
-  </si>
-  <si>
-    <t>Q1 2024</t>
-  </si>
-  <si>
-    <t>Q2 2024</t>
-  </si>
-  <si>
-    <t>Q3 2024</t>
-  </si>
-  <si>
-    <t>Q4 2024</t>
+    <t>Unemployment Rate France</t>
+  </si>
+  <si>
+    <t>Quarter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -685,18 +194,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -718,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -732,8 +229,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1071,7 +567,7 @@
   <dimension ref="A1:B169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1081,1352 +577,1352 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
+      <c r="A2" s="13">
+        <v>30317</v>
       </c>
       <c r="B2">
         <v>6.8306889999999996</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>25</v>
+      <c r="A3" s="13">
+        <v>30407</v>
       </c>
       <c r="B3">
         <v>7.1971230000000004</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>26</v>
+      <c r="A4" s="13">
+        <v>30498</v>
       </c>
       <c r="B4">
         <v>7.583647</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>27</v>
+      <c r="A5" s="13">
+        <v>30590</v>
       </c>
       <c r="B5">
         <v>7.9096399999999996</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>28</v>
+      <c r="A6" s="13">
+        <v>30682</v>
       </c>
       <c r="B6">
         <v>8.1438220000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>29</v>
+      <c r="A7" s="13">
+        <v>30773</v>
       </c>
       <c r="B7">
         <v>8.3660920000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>30</v>
+      <c r="A8" s="13">
+        <v>30864</v>
       </c>
       <c r="B8">
         <v>8.5754739999999998</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>31</v>
+      <c r="A9" s="13">
+        <v>30956</v>
       </c>
       <c r="B9">
         <v>8.7651730000000008</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
+      <c r="A10" s="13">
+        <v>31048</v>
       </c>
       <c r="B10">
         <v>8.7086039999999993</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>33</v>
+      <c r="A11" s="13">
+        <v>31138</v>
       </c>
       <c r="B11">
         <v>8.6761970000000002</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>34</v>
+      <c r="A12" s="13">
+        <v>31229</v>
       </c>
       <c r="B12">
         <v>8.6664860000000008</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>35</v>
+      <c r="A13" s="13">
+        <v>31321</v>
       </c>
       <c r="B13">
         <v>8.6969729999999998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>36</v>
+      <c r="A14" s="13">
+        <v>31413</v>
       </c>
       <c r="B14">
         <v>8.6044859999999996</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>37</v>
+      <c r="A15" s="13">
+        <v>31503</v>
       </c>
       <c r="B15">
         <v>8.7592210000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>38</v>
+      <c r="A16" s="13">
+        <v>31594</v>
       </c>
       <c r="B16">
         <v>8.9477639999999994</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>39</v>
+      <c r="A17" s="13">
+        <v>31686</v>
       </c>
       <c r="B17">
         <v>9.2130600000000005</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>40</v>
+      <c r="A18" s="13">
+        <v>31778</v>
       </c>
       <c r="B18">
         <v>9.267671</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>41</v>
+      <c r="A19" s="13">
+        <v>31868</v>
       </c>
       <c r="B19">
         <v>9.1756170000000008</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>42</v>
+      <c r="A20" s="13">
+        <v>31959</v>
       </c>
       <c r="B20">
         <v>9.0936039999999991</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>43</v>
+      <c r="A21" s="13">
+        <v>32051</v>
       </c>
       <c r="B21">
         <v>9.0607629999999997</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>44</v>
+      <c r="A22" s="13">
+        <v>32143</v>
       </c>
       <c r="B22">
         <v>8.9104430000000008</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>45</v>
+      <c r="A23" s="13">
+        <v>32234</v>
       </c>
       <c r="B23">
         <v>8.842841</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>46</v>
+      <c r="A24" s="13">
+        <v>32325</v>
       </c>
       <c r="B24">
         <v>8.8011739999999996</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>47</v>
+      <c r="A25" s="13">
+        <v>32417</v>
       </c>
       <c r="B25">
         <v>8.8102210000000003</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>48</v>
+      <c r="A26" s="13">
+        <v>32509</v>
       </c>
       <c r="B26">
         <v>8.7253710000000009</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>49</v>
+      <c r="A27" s="13">
+        <v>32599</v>
       </c>
       <c r="B27">
         <v>8.6945049999999995</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>50</v>
+      <c r="A28" s="13">
+        <v>32690</v>
       </c>
       <c r="B28">
         <v>8.6647029999999994</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>51</v>
+      <c r="A29" s="13">
+        <v>32782</v>
       </c>
       <c r="B29">
         <v>8.6493409999999997</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>52</v>
+      <c r="A30" s="13">
+        <v>32874</v>
       </c>
       <c r="B30">
         <v>8.5375180000000004</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>53</v>
+      <c r="A31" s="13">
+        <v>32964</v>
       </c>
       <c r="B31">
         <v>8.4345400000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="A32" s="13">
+        <v>33055</v>
       </c>
       <c r="B32">
         <v>8.3397159999999992</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>55</v>
+      <c r="A33" s="13">
+        <v>33147</v>
       </c>
       <c r="B33">
         <v>8.3027460000000008</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>56</v>
+      <c r="A34" s="13">
+        <v>33239</v>
       </c>
       <c r="B34">
         <v>8.3005110000000002</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>57</v>
+      <c r="A35" s="13">
+        <v>33329</v>
       </c>
       <c r="B35">
         <v>8.4596330000000002</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>58</v>
+      <c r="A36" s="13">
+        <v>33420</v>
       </c>
       <c r="B36">
         <v>8.704637</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>59</v>
+      <c r="A37" s="13">
+        <v>33512</v>
       </c>
       <c r="B37">
         <v>8.9923830000000002</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>60</v>
+      <c r="A38" s="13">
+        <v>33604</v>
       </c>
       <c r="B38">
         <v>9.8606669999999994</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>61</v>
+      <c r="A39" s="13">
+        <v>33695</v>
       </c>
       <c r="B39">
         <v>10.065674</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>62</v>
+      <c r="A40" s="13">
+        <v>33786</v>
       </c>
       <c r="B40">
         <v>10.276223</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>63</v>
+      <c r="A41" s="13">
+        <v>33878</v>
       </c>
       <c r="B41">
         <v>10.554097000000001</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>64</v>
+      <c r="A42" s="13">
+        <v>33970</v>
       </c>
       <c r="B42">
         <v>10.897945999999999</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>65</v>
+      <c r="A43" s="13">
+        <v>34060</v>
       </c>
       <c r="B43">
         <v>11.232936</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>66</v>
+      <c r="A44" s="13">
+        <v>34151</v>
       </c>
       <c r="B44">
         <v>11.52131</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>67</v>
+      <c r="A45" s="13">
+        <v>34243</v>
       </c>
       <c r="B45">
         <v>11.831973</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>68</v>
+      <c r="A46" s="13">
+        <v>34335</v>
       </c>
       <c r="B46">
         <v>12.085736000000001</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>69</v>
+      <c r="A47" s="13">
+        <v>34425</v>
       </c>
       <c r="B47">
         <v>11.926437999999999</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>70</v>
+      <c r="A48" s="13">
+        <v>34516</v>
       </c>
       <c r="B48">
         <v>11.730278999999999</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>71</v>
+      <c r="A49" s="13">
+        <v>34608</v>
       </c>
       <c r="B49">
         <v>11.576019000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>72</v>
+      <c r="A50" s="13">
+        <v>34700</v>
       </c>
       <c r="B50">
         <v>11.379267</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>73</v>
+      <c r="A51" s="13">
+        <v>34790</v>
       </c>
       <c r="B51">
         <v>11.458626000000001</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>74</v>
+      <c r="A52" s="13">
+        <v>34881</v>
       </c>
       <c r="B52">
         <v>11.522719</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>75</v>
+      <c r="A53" s="13">
+        <v>34973</v>
       </c>
       <c r="B53">
         <v>11.716875</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>76</v>
+      <c r="A54" s="13">
+        <v>35065</v>
       </c>
       <c r="B54">
         <v>11.90278</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>77</v>
+      <c r="A55" s="13">
+        <v>35156</v>
       </c>
       <c r="B55">
         <v>11.997176</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>78</v>
+      <c r="A56" s="13">
+        <v>35247</v>
       </c>
       <c r="B56">
         <v>12.0695</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>79</v>
+      <c r="A57" s="13">
+        <v>35339</v>
       </c>
       <c r="B57">
         <v>12.101258</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>80</v>
+      <c r="A58" s="13">
+        <v>35431</v>
       </c>
       <c r="B58">
         <v>12.115755</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>81</v>
+      <c r="A59" s="13">
+        <v>35521</v>
       </c>
       <c r="B59">
         <v>12.038577999999999</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>82</v>
+      <c r="A60" s="13">
+        <v>35612</v>
       </c>
       <c r="B60">
         <v>11.908874000000001</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>83</v>
+      <c r="A61" s="13">
+        <v>35704</v>
       </c>
       <c r="B61">
         <v>11.779728</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>84</v>
+      <c r="A62" s="13">
+        <v>35796</v>
       </c>
       <c r="B62">
         <v>11.646770999999999</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>85</v>
+      <c r="A63" s="13">
+        <v>35886</v>
       </c>
       <c r="B63">
         <v>11.648505999999999</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>86</v>
+      <c r="A64" s="13">
+        <v>35977</v>
       </c>
       <c r="B64">
         <v>11.620784</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>87</v>
+      <c r="A65" s="13">
+        <v>36069</v>
       </c>
       <c r="B65">
         <v>11.594274</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>88</v>
+      <c r="A66" s="13">
+        <v>36161</v>
       </c>
       <c r="B66">
         <v>11.529299999999999</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>89</v>
+      <c r="A67" s="13">
+        <v>36251</v>
       </c>
       <c r="B67">
         <v>11.135847999999999</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>90</v>
+      <c r="A68" s="13">
+        <v>36342</v>
       </c>
       <c r="B68">
         <v>10.687446</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>91</v>
+      <c r="A69" s="13">
+        <v>36434</v>
       </c>
       <c r="B69">
         <v>10.242445999999999</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>92</v>
+      <c r="A70" s="13">
+        <v>36526</v>
       </c>
       <c r="B70">
         <v>9.8001690000000004</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>93</v>
+      <c r="A71" s="13">
+        <v>36617</v>
       </c>
       <c r="B71">
         <v>9.3287329999999997</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>94</v>
+      <c r="A72" s="13">
+        <v>36708</v>
       </c>
       <c r="B72">
         <v>8.9118790000000008</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>95</v>
+      <c r="A73" s="13">
+        <v>36800</v>
       </c>
       <c r="B73">
         <v>8.5916429999999995</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>96</v>
+      <c r="A74" s="13">
+        <v>36892</v>
       </c>
       <c r="B74">
         <v>8.2513260000000006</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>97</v>
+      <c r="A75" s="13">
+        <v>36982</v>
       </c>
       <c r="B75">
         <v>8.2450109999999999</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>98</v>
+      <c r="A76" s="13">
+        <v>37073</v>
       </c>
       <c r="B76">
         <v>8.2308830000000004</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>99</v>
+      <c r="A77" s="13">
+        <v>37165</v>
       </c>
       <c r="B77">
         <v>8.266629</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>100</v>
+      <c r="A78" s="13">
+        <v>37257</v>
       </c>
       <c r="B78">
         <v>8.301812</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>101</v>
+      <c r="A79" s="13">
+        <v>37347</v>
       </c>
       <c r="B79">
         <v>8.2207869999999996</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>102</v>
+      <c r="A80" s="13">
+        <v>37438</v>
       </c>
       <c r="B80">
         <v>8.1283910000000006</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>103</v>
+      <c r="A81" s="13">
+        <v>37530</v>
       </c>
       <c r="B81">
         <v>8.0165009999999999</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>104</v>
+      <c r="A82" s="13">
+        <v>37622</v>
       </c>
       <c r="B82">
         <v>7.9129240000000003</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>105</v>
+      <c r="A83" s="13">
+        <v>37712</v>
       </c>
       <c r="B83">
         <v>8.1045079999999992</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>106</v>
+      <c r="A84" s="13">
+        <v>37803</v>
       </c>
       <c r="B84">
         <v>8.0387830000000005</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>107</v>
+      <c r="A85" s="13">
+        <v>37895</v>
       </c>
       <c r="B85">
         <v>8.3487130000000001</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>108</v>
+      <c r="A86" s="13">
+        <v>37987</v>
       </c>
       <c r="B86">
         <v>8.5118379999999991</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>109</v>
+      <c r="A87" s="13">
+        <v>38078</v>
       </c>
       <c r="B87">
         <v>8.3998089999999994</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>110</v>
+      <c r="A88" s="13">
+        <v>38169</v>
       </c>
       <c r="B88">
         <v>8.4613600000000009</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>111</v>
+      <c r="A89" s="13">
+        <v>38261</v>
       </c>
       <c r="B89">
         <v>8.4978979999999993</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>112</v>
+      <c r="A90" s="13">
+        <v>38353</v>
       </c>
       <c r="B90">
         <v>8.2786369999999998</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>113</v>
+      <c r="A91" s="13">
+        <v>38443</v>
       </c>
       <c r="B91">
         <v>8.456842</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>114</v>
+      <c r="A92" s="13">
+        <v>38534</v>
       </c>
       <c r="B92">
         <v>8.5811890000000002</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>115</v>
+      <c r="A93" s="13">
+        <v>38626</v>
       </c>
       <c r="B93">
         <v>8.7080990000000007</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>116</v>
+      <c r="A94" s="13">
+        <v>38718</v>
       </c>
       <c r="B94">
         <v>8.7340750000000007</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>117</v>
+      <c r="A95" s="13">
+        <v>38808</v>
       </c>
       <c r="B95">
         <v>8.5626870000000004</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>118</v>
+      <c r="A96" s="13">
+        <v>38899</v>
       </c>
       <c r="B96">
         <v>8.4299400000000002</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>119</v>
+      <c r="A97" s="13">
+        <v>38991</v>
       </c>
       <c r="B97">
         <v>8.1140310000000007</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>120</v>
+      <c r="A98" s="13">
+        <v>39083</v>
       </c>
       <c r="B98">
         <v>8.1113719999999994</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>121</v>
+      <c r="A99" s="13">
+        <v>39173</v>
       </c>
       <c r="B99">
         <v>7.7713029999999996</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>122</v>
+      <c r="A100" s="13">
+        <v>39264</v>
       </c>
       <c r="B100">
         <v>7.5067729999999999</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>123</v>
+      <c r="A101" s="13">
+        <v>39356</v>
       </c>
       <c r="B101">
         <v>7.2106029999999999</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>124</v>
+      <c r="A102" s="13">
+        <v>39448</v>
       </c>
       <c r="B102">
         <v>6.8290470000000001</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>125</v>
+      <c r="A103" s="13">
+        <v>39539</v>
       </c>
       <c r="B103">
         <v>6.9668590000000004</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>126</v>
+      <c r="A104" s="13">
+        <v>39630</v>
       </c>
       <c r="B104">
         <v>7.0900619999999996</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>127</v>
+      <c r="A105" s="13">
+        <v>39722</v>
       </c>
       <c r="B105">
         <v>7.4523950000000001</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>128</v>
+      <c r="A106" s="13">
+        <v>39814</v>
       </c>
       <c r="B106">
         <v>8.2067460000000008</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>129</v>
+      <c r="A107" s="13">
+        <v>39904</v>
       </c>
       <c r="B107">
         <v>8.7627009999999999</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>130</v>
+      <c r="A108" s="13">
+        <v>39995</v>
       </c>
       <c r="B108">
         <v>8.7947290000000002</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>131</v>
+      <c r="A109" s="13">
+        <v>40087</v>
       </c>
       <c r="B109">
         <v>9.1310479999999998</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>132</v>
+      <c r="A110" s="13">
+        <v>40179</v>
       </c>
       <c r="B110">
         <v>9.0006920000000008</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>133</v>
+      <c r="A111" s="13">
+        <v>40269</v>
       </c>
       <c r="B111">
         <v>8.9000920000000008</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>134</v>
+      <c r="A112" s="13">
+        <v>40360</v>
       </c>
       <c r="B112">
         <v>8.8398000000000003</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>135</v>
+      <c r="A113" s="13">
+        <v>40452</v>
       </c>
       <c r="B113">
         <v>8.7697730000000007</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>136</v>
+      <c r="A114" s="13">
+        <v>40544</v>
       </c>
       <c r="B114">
         <v>8.7874839999999992</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>137</v>
+      <c r="A115" s="13">
+        <v>40634</v>
       </c>
       <c r="B115">
         <v>8.7438579999999995</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>138</v>
+      <c r="A116" s="13">
+        <v>40725</v>
       </c>
       <c r="B116">
         <v>8.8212849999999996</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>139</v>
+      <c r="A117" s="13">
+        <v>40817</v>
       </c>
       <c r="B117">
         <v>8.9557920000000006</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>140</v>
+      <c r="A118" s="13">
+        <v>40909</v>
       </c>
       <c r="B118">
         <v>9.1169630000000002</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>141</v>
+      <c r="A119" s="13">
+        <v>41000</v>
       </c>
       <c r="B119">
         <v>9.3329690000000003</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>142</v>
+      <c r="A120" s="13">
+        <v>41091</v>
       </c>
       <c r="B120">
         <v>9.4268680000000007</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>143</v>
+      <c r="A121" s="13">
+        <v>41183</v>
       </c>
       <c r="B121">
         <v>9.7915050000000008</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>144</v>
+      <c r="A122" s="13">
+        <v>41275</v>
       </c>
       <c r="B122">
         <v>9.9699500000000008</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>145</v>
+      <c r="A123" s="13">
+        <v>41365</v>
       </c>
       <c r="B123">
         <v>9.9847210000000004</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>146</v>
+      <c r="A124" s="13">
+        <v>41456</v>
       </c>
       <c r="B124">
         <v>9.8899249999999999</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>147</v>
+      <c r="A125" s="13">
+        <v>41548</v>
       </c>
       <c r="B125">
         <v>9.8110999999999997</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>148</v>
+      <c r="A126" s="13">
+        <v>41640</v>
       </c>
       <c r="B126">
         <v>9.8753480000000007</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>149</v>
+      <c r="A127" s="13">
+        <v>41730</v>
       </c>
       <c r="B127">
         <v>9.8120229999999999</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>150</v>
+      <c r="A128" s="13">
+        <v>41821</v>
       </c>
       <c r="B128">
         <v>9.9613160000000001</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>151</v>
+      <c r="A129" s="13">
+        <v>41913</v>
       </c>
       <c r="B129">
         <v>10.120481</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>152</v>
+      <c r="A130" s="13">
+        <v>42005</v>
       </c>
       <c r="B130">
         <v>10.048999</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>153</v>
+      <c r="A131" s="13">
+        <v>42095</v>
       </c>
       <c r="B131">
         <v>10.141318</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>154</v>
+      <c r="A132" s="13">
+        <v>42186</v>
       </c>
       <c r="B132">
         <v>10.080500000000001</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>155</v>
+      <c r="A133" s="13">
+        <v>42278</v>
       </c>
       <c r="B133">
         <v>9.9003770000000006</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>156</v>
+      <c r="A134" s="13">
+        <v>42370</v>
       </c>
       <c r="B134">
         <v>9.9449140000000007</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>157</v>
+      <c r="A135" s="13">
+        <v>42461</v>
       </c>
       <c r="B135">
         <v>9.7018760000000004</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>158</v>
+      <c r="A136" s="13">
+        <v>42552</v>
       </c>
       <c r="B136">
         <v>9.6540379999999999</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>159</v>
+      <c r="A137" s="13">
+        <v>42644</v>
       </c>
       <c r="B137">
         <v>9.7197870000000002</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>160</v>
+      <c r="A138" s="13">
+        <v>42736</v>
       </c>
       <c r="B138">
         <v>9.3325650000000007</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>161</v>
+      <c r="A139" s="13">
+        <v>42826</v>
       </c>
       <c r="B139">
         <v>9.1800490000000003</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>162</v>
+      <c r="A140" s="13">
+        <v>42917</v>
       </c>
       <c r="B140">
         <v>9.2006230000000002</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>163</v>
+      <c r="A141" s="13">
+        <v>43009</v>
       </c>
       <c r="B141">
         <v>8.7266849999999998</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>164</v>
+      <c r="A142" s="13">
+        <v>43101</v>
       </c>
       <c r="B142">
         <v>8.9336520000000004</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>165</v>
+      <c r="A143" s="13">
+        <v>43191</v>
       </c>
       <c r="B143">
         <v>8.7800440000000002</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>166</v>
+      <c r="A144" s="13">
+        <v>43282</v>
       </c>
       <c r="B144">
         <v>8.6251909999999992</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>167</v>
+      <c r="A145" s="13">
+        <v>43374</v>
       </c>
       <c r="B145">
         <v>8.4769640000000006</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>168</v>
+      <c r="A146" s="13">
+        <v>43466</v>
       </c>
       <c r="B146">
         <v>8.3953860000000002</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>169</v>
+      <c r="A147" s="13">
+        <v>43556</v>
       </c>
       <c r="B147">
         <v>8.2432420000000004</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>170</v>
+      <c r="A148" s="13">
+        <v>43647</v>
       </c>
       <c r="B148">
         <v>7.9702549999999999</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>171</v>
+      <c r="A149" s="13">
+        <v>43739</v>
       </c>
       <c r="B149">
         <v>7.8999199999999998</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>172</v>
+      <c r="A150" s="13">
+        <v>43831</v>
       </c>
       <c r="B150">
         <v>7.6172069999999996</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>173</v>
+      <c r="A151" s="13">
+        <v>43922</v>
       </c>
       <c r="B151">
         <v>7.3419439999999998</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>174</v>
+      <c r="A152" s="13">
+        <v>44013</v>
       </c>
       <c r="B152">
         <v>8.4660130000000002</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>175</v>
+      <c r="A153" s="13">
+        <v>44105</v>
       </c>
       <c r="B153">
         <v>7.8056559999999999</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>176</v>
+      <c r="A154" s="13">
+        <v>44197</v>
       </c>
       <c r="B154">
         <v>8.1385100000000001</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>177</v>
+      <c r="A155" s="13">
+        <v>44287</v>
       </c>
       <c r="B155">
         <v>8.0175319999999992</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>178</v>
+      <c r="A156" s="13">
+        <v>44378</v>
       </c>
       <c r="B156">
         <v>7.8332550000000003</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>179</v>
+      <c r="A157" s="13">
+        <v>44470</v>
       </c>
       <c r="B157">
         <v>7.4702669999999998</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>180</v>
+      <c r="A158" s="13">
+        <v>44562</v>
       </c>
       <c r="B158">
         <v>7.3608469999999997</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>181</v>
+      <c r="A159" s="13">
+        <v>44652</v>
       </c>
       <c r="B159">
         <v>7.4783379999999999</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>182</v>
+      <c r="A160" s="13">
+        <v>44743</v>
       </c>
       <c r="B160">
         <v>7.2274909999999997</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>183</v>
+      <c r="A161" s="13">
+        <v>44835</v>
       </c>
       <c r="B161">
         <v>7.1806099999999997</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>184</v>
+      <c r="A162" s="13">
+        <v>44927</v>
       </c>
       <c r="B162">
         <v>7.0940240000000001</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>185</v>
+      <c r="A163" s="13">
+        <v>45017</v>
       </c>
       <c r="B163">
         <v>7.2879139999999998</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>186</v>
+      <c r="A164" s="13">
+        <v>45108</v>
       </c>
       <c r="B164">
         <v>7.4035190000000002</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>187</v>
+      <c r="A165" s="13">
+        <v>45200</v>
       </c>
       <c r="B165">
         <v>7.5806839999999998</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>188</v>
+      <c r="A166" s="13">
+        <v>45292</v>
       </c>
       <c r="B166">
         <v>7.4668070000000002</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>189</v>
+      <c r="A167" s="13">
+        <v>45383</v>
       </c>
       <c r="B167">
         <v>7.3758470000000003</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>190</v>
+      <c r="A168" s="13">
+        <v>45474</v>
       </c>
       <c r="B168">
         <v>7.4103630000000003</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>191</v>
+      <c r="A169" s="13">
+        <v>45566</v>
       </c>
       <c r="B169">
         <v>7.3159280000000004</v>
